--- a/Descargas/R15_Juzgado De Letras Y Garantia De Taltal_Familia_Terminos Por Rol_2018-Diciembre.xlsx
+++ b/Descargas/R15_Juzgado De Letras Y Garantia De Taltal_Familia_Terminos Por Rol_2018-Diciembre.xlsx
@@ -231,7 +231,7 @@
         </is>
       </c>
       <c r="B3" s="65">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -257,7 +257,7 @@
     <row r="6">
       <c t="inlineStr" r="A6">
         <is>
-          <t xml:space="preserve">Desistimiento</t>
+          <t xml:space="preserve">Incompetencia</t>
         </is>
       </c>
       <c r="B6" s="65">
@@ -267,41 +267,31 @@
     <row r="7">
       <c t="inlineStr" r="A7">
         <is>
-          <t xml:space="preserve">Incompetencia</t>
+          <t xml:space="preserve">Mediación</t>
         </is>
       </c>
       <c r="B7" s="65">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
       <c t="inlineStr" r="A8">
         <is>
-          <t xml:space="preserve">Mediación</t>
+          <t xml:space="preserve">No Da Curso A La Solicitud</t>
         </is>
       </c>
       <c r="B8" s="65">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c t="inlineStr" r="A9">
         <is>
-          <t xml:space="preserve">No Da Curso A La Solicitud</t>
+          <t xml:space="preserve">Sentencia</t>
         </is>
       </c>
       <c r="B9" s="65">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c t="inlineStr" r="A10">
-        <is>
-          <t xml:space="preserve">Sentencia</t>
-        </is>
-      </c>
-      <c r="B10" s="65">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
